--- a/tests/data/090GA.xlsx
+++ b/tests/data/090GA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51240275-3E52-E941-848F-010B68F09F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0BB91-4821-AE4C-8FB2-D1BA9D1F860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="980" windowWidth="56960" windowHeight="28040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="760" windowWidth="38520" windowHeight="28040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>Exact Match IRI</t>
   </si>
   <si>
-    <t>Example Workbook (simple):</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.w3.org/TR/skos-primer/ </t>
   </si>
   <si>
@@ -582,12 +579,6 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>https://github.com/RDFLib/VocExcel/blob/master/tests/071_simple.xlsx</t>
-  </si>
-  <si>
-    <t>http://docs.kurrawong.ai/vocexcel</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">You will need an Internet Identifier - an IRI, like a URL - for the vocabulary's ConceptScheme, any Collections &amp; Concepts.
 You will need one IRI for the vocabulary overall and then that IRI can be used as a namespace for the individual Collections &amp; Concepts.
@@ -738,25 +729,6 @@
   <si>
     <t>This section described each of the fields that are needed for the ConceptScheme, Concepts and all other vocabulary elements. There are additional notes next to most fields on their individual sheets also.
 Starred fields are mandatory.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Concept IRI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>* = Must be a valid URI. Often this is based on the Vocabulary URI, e.g. if the vocab URI is https://example.com/def/rocks, the Concept URI might be https://example.com/def/rocks/metamorphic. When Concepts are borrowed from other vocabularies, the URI must be the URI from the original vocabulary. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1466,20 +1438,10 @@
     <t>Organisation: An IRI if you have one, else just a name for the publisher of this vocab</t>
   </si>
   <si>
-    <t>Please refer to the guidance and example template for help [Coming]
-or contact dataman@ga.gov.au</t>
-  </si>
-  <si>
     <t>Convert the XLSX to TTL here:</t>
   </si>
   <si>
-    <t>https://tools.dev.kurrawong.ai/vocexcel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate your data here: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tools.dev.kurrawong.ai/validate </t>
   </si>
   <si>
     <t>For more information about the conversion tool, VocExcel, please see:</t>
@@ -1631,6 +1593,46 @@
   </si>
   <si>
     <t>Made for testing the example file</t>
+  </si>
+  <si>
+    <t>https://github.com/RDFLib/VocExcel/blob/master/tests/090GA.xlsx</t>
+  </si>
+  <si>
+    <t>Example Workbook:</t>
+  </si>
+  <si>
+    <t>https://tools.kurrawong.ai/vocexcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tools.kurrawong.ai/validate </t>
+  </si>
+  <si>
+    <t>Please refer to the Documentation wroksheet and example workbooks (link to the right) for help or or contact dataman@ga.gov.au</t>
+  </si>
+  <si>
+    <t>https://docs.kurrawong.ai/products/tools/vocexcel/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Concept IRI*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = Must be either a full valid IRI or a short code - the Concept ID - that will be appended to the Concept Scheme IRI. e.g., supply something like https://example.com/def/rocks/metemorphic or just "metemorphic" and if the Concept Sheme IRI is https://example.com/def/rocks, you will get https://example.com/def/rocks + "/" + "metemorphic" = https://example.com/def/rocks/metemorphic.
+IRIs cannot contain spaces or any characters other than letters, numbers, hyphens and the "://" in https://. IDs cannot contain /.
+Better than creating a Concept ID from a Concept's prefLabel, as per 'metamorphic' above, is to use an ID generator of some kind to make opaque, robust, IDs that are guarenteed to be unique within the vocabulary and possibly gobally. Use the 'Online UUID Generator' at https://www.uuidgenerator.net/. 
+When Concepts are borrowed from other vocabularies, the IRI must be the IRI from the original vocabulary. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2105,6 +2107,15 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2119,15 +2130,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2406,7 +2408,7 @@
   <dimension ref="A1:K983"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J21" sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2459,17 +2461,17 @@
       <c r="I3" s="59"/>
       <c r="J3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="59"/>
       <c r="B4" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="60" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -2477,29 +2479,33 @@
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="59"/>
       <c r="B5" s="60" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>202</v>
+      </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
     </row>
-    <row r="6" spans="1:11" ht="38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="59"/>
       <c r="D6" s="60" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
@@ -2510,7 +2516,7 @@
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2524,15 +2530,11 @@
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="62" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C8" s="59"/>
-      <c r="D8" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>98</v>
-      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -2555,7 +2557,7 @@
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="B10" s="60" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -2569,7 +2571,7 @@
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="B11" s="62" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
@@ -2595,7 +2597,7 @@
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="56"/>
@@ -2609,7 +2611,7 @@
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="62" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -2635,7 +2637,7 @@
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A16" s="59"/>
       <c r="B16" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="60"/>
@@ -2649,7 +2651,7 @@
     <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.15">
       <c r="A17" s="59"/>
       <c r="B17" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
@@ -2663,7 +2665,7 @@
     <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.15">
       <c r="A18" s="59"/>
       <c r="B18" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
@@ -2689,7 +2691,7 @@
     <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.15">
       <c r="A20" s="56"/>
       <c r="B20" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="58"/>
@@ -2703,7 +2705,7 @@
     <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.15">
       <c r="A21" s="56"/>
       <c r="B21" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="58"/>
@@ -3689,12 +3691,12 @@
     <row r="983" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{E4837409-9B33-4A40-A996-49AC2E8A520E}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{5F90EE9C-2532-3C44-B2DC-F629F2D0CABD}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{426C27CE-80B6-3B4B-9818-E003FC2668F0}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{86D08F37-E132-6643-8022-470C4CB2AA29}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{717FA3E2-97D5-EF47-B8C3-E129FBC3C94D}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{95A6E5E7-4BE3-7B49-8DE9-7C4B72467C61}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{5F90EE9C-2532-3C44-B2DC-F629F2D0CABD}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{426C27CE-80B6-3B4B-9818-E003FC2668F0}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{86D08F37-E132-6643-8022-470C4CB2AA29}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{717FA3E2-97D5-EF47-B8C3-E129FBC3C94D}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{95A6E5E7-4BE3-7B49-8DE9-7C4B72467C61}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{DCD6DF87-CAB2-FE49-A2D4-F9389892F334}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>
@@ -3705,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3727,7 +3729,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3735,7 +3737,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>30</v>
@@ -3746,7 +3748,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>37</v>
@@ -3754,10 +3756,10 @@
     </row>
     <row r="6" spans="1:3" ht="97" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -3786,7 +3788,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -3799,7 +3801,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -3825,14 +3827,14 @@
         <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -3841,7 +3843,7 @@
     </row>
     <row r="21" spans="1:3" ht="95" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -3852,140 +3854,140 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -3996,37 +3998,37 @@
         <v>32</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -4037,22 +4039,22 @@
         <v>18</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -4063,17 +4065,17 @@
         <v>31</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4105,25 +4107,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" s="35" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -4131,10 +4133,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>22</v>
@@ -4145,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>23</v>
@@ -4159,10 +4161,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>3</v>
@@ -4201,10 +4203,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>24</v>
@@ -4215,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>24</v>
@@ -4230,7 +4232,7 @@
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>25</v>
@@ -4241,10 +4243,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>11</v>
@@ -4252,13 +4254,13 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>3</v>
@@ -4266,78 +4268,78 @@
     </row>
     <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="38" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -7329,20 +7331,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>14</v>
@@ -7354,150 +7356,150 @@
         <v>16</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>85</v>
-      </c>
       <c r="H2" s="32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I3" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="60" t="s">
-        <v>171</v>
-      </c>
       <c r="K3" s="60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
-        <v>183</v>
+      <c r="A4" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="72"/>
+        <v>179</v>
+      </c>
+      <c r="E4" s="67"/>
       <c r="G4" s="19"/>
       <c r="I4" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
-        <v>187</v>
+      <c r="A5" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>184</v>
       </c>
       <c r="G5" s="19"/>
       <c r="I5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="71" t="s">
-        <v>192</v>
+      <c r="A6" s="66" t="s">
+        <v>185</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="71"/>
+        <v>188</v>
+      </c>
+      <c r="E6" s="66"/>
       <c r="G6" s="19"/>
       <c r="I6" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="38" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7791,16 +7793,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -7816,21 +7818,21 @@
         <v>40</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="20" customFormat="1" ht="266" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -7838,10 +7840,10 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="46" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -7911,7 +7913,7 @@
   </sheetPr>
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:E4"/>
     </sheetView>
@@ -7929,17 +7931,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>14</v>
@@ -7948,42 +7950,42 @@
         <v>15</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
-        <v>204</v>
+      <c r="A4" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>207</v>
+        <v>199</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>200</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -9331,11 +9333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -9345,19 +9347,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -9424,7 +9426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A6FC2-09E1-BE42-AC28-7F748C42BE8A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
@@ -9436,62 +9438,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -9504,6 +9506,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9740,16 +9751,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9766,12 +9776,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>